--- a/src/main/resources/xlsx-templates/mas-report-1b.xlsx
+++ b/src/main/resources/xlsx-templates/mas-report-1b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaProject\dtc-settlement-engine\src\main\resources\xlsx-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1258C9DD-4288-419A-8550-0F9B04967B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7022270E-E838-47BF-8CE5-41BBBF3D2069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37545" yWindow="1860" windowWidth="15240" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1B Summary" sheetId="5" r:id="rId1"/>
@@ -300,9 +300,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -324,16 +324,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -613,9 +613,7 @@
     </row>
     <row r="6" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="16">
-        <v>0</v>
-      </c>
+      <c r="B6" s="16"/>
       <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
